--- a/MD3/MD3 Energies.xlsx
+++ b/MD3/MD3 Energies.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="16" documentId="8_{6491E17B-0D8A-4940-8BF6-6E3C45AC59CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{293EAFA6-A616-41CE-BBB8-A0773DF0FEA2}"/>
   <bookViews>
-    <workbookView xWindow="11190" yWindow="0" windowWidth="11460" windowHeight="14410" xr2:uid="{66B041E4-46F4-4186-8406-139D08D7598F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{66B041E4-46F4-4186-8406-139D08D7598F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -137,10 +137,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -178,7 +182,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -284,7 +288,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -426,7 +430,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -437,7 +441,7 @@
   <dimension ref="B1:E6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
